--- a/seed/default_users.xlsx
+++ b/seed/default_users.xlsx
@@ -292,7 +292,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -465,7 +465,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -862,7 +862,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -924,7 +924,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="7" t="s">
         <v>38</v>
       </c>
@@ -986,7 +986,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="7" t="s">
         <v>43</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="7" t="s">
         <v>48</v>
       </c>
